--- a/files/progress_report.xlsx
+++ b/files/progress_report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">District</t>
   </si>
@@ -40,97 +40,76 @@
     <t xml:space="preserve">Work Executed</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Census Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">census</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
   </si>
   <si>
     <t xml:space="preserve">Completion Date</t>
   </si>
   <si>
-    <t xml:space="preserve">ACSR Conductor (km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Phase AB Cable (km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Phase AB Cable (km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8m Pole (Nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9m Pole (Nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTR 100KVA (nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTR 63KVA (nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTR 25KVA (nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT Ckt Length (km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8m HT Pole (Nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT 3 Ph Ckt. Length (km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT 1 Ph Ckt. Length (km)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8m LT Pole (Nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 KVA DTR (nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63 KVA DTR (nos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 KVA DTR (nos)</t>
+    <t xml:space="preserve">acsr_shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cable_3p_shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cable_1p_shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pole_8m_shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pole_9m_shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtr_100_shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtr_63_shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtr_25_shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pole_ht_8m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lt_3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lt_1p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pole_lt_8m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtr_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtr_63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtr_25</t>
   </si>
   <si>
     <t xml:space="preserve">Remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samushang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shantipur Awang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chakumei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khriidziiphi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khriiziiphi</t>
   </si>
 </sst>
 </file>
@@ -172,12 +151,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -227,16 +218,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,8 +251,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -257,6 +276,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF66FF99"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -268,186 +347,264 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="8" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="16" style="2" width="10.44"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="str">
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="str">
         <f aca="false">IF(D1="","ERROR")</f>
         <v>ERROR</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="str">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="str">
         <f aca="false">IF(D2="","ERROR")</f>
         <v>ERROR</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H5" s="4" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="0"/>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>270151</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0"/>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>268468</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>268450</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/files/progress_report.xlsx
+++ b/files/progress_report.xlsx
@@ -109,7 +109,7 @@
     <t xml:space="preserve">dtr_25</t>
   </si>
   <si>
-    <t xml:space="preserve">Remark</t>
+    <t xml:space="preserve">remark</t>
   </si>
 </sst>
 </file>
@@ -346,11 +346,11 @@
   </sheetPr>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="8" style="1" width="10.44"/>
